--- a/Mplus/wave1/atti_student_1/input_atti_student_1.xlsx
+++ b/Mplus/wave1/atti_student_1/input_atti_student_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Code/WB_Armenia_FA/Mplus/wave1/sswq_student_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfive/Code/WB_Armenia_FA/Mplus/wave1/atti_student_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C93E8-D9A1-6345-BC82-B061B849C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EF4AE9-F179-364A-8880-C7EA3BC08A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34160" yWindow="3080" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{23A01AAA-5861-0842-AB9B-F1A19BD3FEAA}"/>
   </bookViews>
   <sheets>
     <sheet name="path" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>model_file_path</t>
   </si>
@@ -85,169 +85,70 @@
     <t>/Users/michaelfive/Library/CloudStorage/GoogleDrive-wuzezhen33@gmail.com/My Drive/WB Armenia Study/Data/wave1/dat_stu_1.csv</t>
   </si>
   <si>
-    <t>SSWQ-Student</t>
-  </si>
-  <si>
-    <t>/Users/michaelfive/Code/WB_Armenia_FA/Mplus/wave1/sswq_student_1</t>
-  </si>
-  <si>
-    <t>scs_1</t>
-  </si>
-  <si>
-    <t>jls_1</t>
-  </si>
-  <si>
-    <t>eps_1</t>
-  </si>
-  <si>
-    <t>aes_1</t>
-  </si>
-  <si>
-    <t>sswq2_1</t>
-  </si>
-  <si>
-    <t>sswq6_1</t>
-  </si>
-  <si>
-    <t>sswq10_1</t>
-  </si>
-  <si>
-    <t>sswq14_1</t>
-  </si>
-  <si>
-    <t>sswq1_1</t>
-  </si>
-  <si>
-    <t>sswq5_1</t>
-  </si>
-  <si>
-    <t>sswq9_1</t>
-  </si>
-  <si>
-    <t>sswq13_1</t>
-  </si>
-  <si>
-    <t>sswq3_1</t>
-  </si>
-  <si>
-    <t>sswq7_1</t>
-  </si>
-  <si>
-    <t>sswq11_1</t>
-  </si>
-  <si>
-    <t>sswq15_1</t>
-  </si>
-  <si>
-    <t>sswq4_1</t>
-  </si>
-  <si>
-    <t>sswq8_1</t>
-  </si>
-  <si>
-    <t>sswq12_1</t>
-  </si>
-  <si>
-    <t>sswq16_1</t>
-  </si>
-  <si>
-    <t>sswq1_student_cfa.out</t>
-  </si>
-  <si>
-    <t>SCS1</t>
-  </si>
-  <si>
-    <t>I feel like I belong at this school.</t>
-  </si>
-  <si>
-    <t>SCS2</t>
-  </si>
-  <si>
-    <t>I can really be myself at this school.</t>
-  </si>
-  <si>
-    <t>SCS3</t>
-  </si>
-  <si>
-    <t>I feel like people at this school care about me.</t>
-  </si>
-  <si>
-    <t>SCS4</t>
-  </si>
-  <si>
-    <t>I am treated with respect at this school.</t>
-  </si>
-  <si>
-    <t>JLS1</t>
-  </si>
-  <si>
-    <t>I get excited about learning new things in class.</t>
-  </si>
-  <si>
-    <t>JLS2</t>
-  </si>
-  <si>
-    <t>I am really interested in the things I am doing at school.</t>
-  </si>
-  <si>
-    <t>JLS3</t>
-  </si>
-  <si>
-    <t>I enjoy working on class projects and assignments.</t>
-  </si>
-  <si>
-    <t>JLS4</t>
-  </si>
-  <si>
-    <t>I feel happy when I am working and learning at school.</t>
-  </si>
-  <si>
-    <t>EPS1</t>
-  </si>
-  <si>
-    <t>I feel like the things I do at school are important.</t>
-  </si>
-  <si>
-    <t>EPS2</t>
-  </si>
-  <si>
-    <t>I think school matters and should be taken seriously.</t>
-  </si>
-  <si>
-    <t>EPS3</t>
-  </si>
-  <si>
-    <t>I feel it is important to do well in my classes.</t>
-  </si>
-  <si>
-    <t>EPS4</t>
-  </si>
-  <si>
-    <t>I believe the things I learn at school will help me in my life.</t>
-  </si>
-  <si>
-    <t>AES1</t>
-  </si>
-  <si>
-    <t>I am a successful student.</t>
-  </si>
-  <si>
-    <t>AES2</t>
-  </si>
-  <si>
-    <t>I do good work at school.</t>
-  </si>
-  <si>
-    <t>AES3</t>
-  </si>
-  <si>
-    <t>I do well on my class assignments.</t>
-  </si>
-  <si>
-    <t>AES4</t>
-  </si>
-  <si>
-    <t>I get good grades in my classes.</t>
+    <t>Attitudes-Student</t>
+  </si>
+  <si>
+    <t>/Users/michaelfive/Code/WB_Armenia_FA/Mplus/wave1/atti_student_1</t>
+  </si>
+  <si>
+    <t>atti_1</t>
+  </si>
+  <si>
+    <t>atti1_1</t>
+  </si>
+  <si>
+    <t>atti2_1</t>
+  </si>
+  <si>
+    <t>atti3_1</t>
+  </si>
+  <si>
+    <t>atti4_1</t>
+  </si>
+  <si>
+    <t>atti5_1</t>
+  </si>
+  <si>
+    <t>atti6_1</t>
+  </si>
+  <si>
+    <t>atti1_student_cfa.out</t>
+  </si>
+  <si>
+    <t>attitudes_Q1</t>
+  </si>
+  <si>
+    <t>One of the main causes of mental illness is a lack of self-discipline and willpower.</t>
+  </si>
+  <si>
+    <t>attitudes_Q2</t>
+  </si>
+  <si>
+    <t>People with mental illness are a burden on society.</t>
+  </si>
+  <si>
+    <t>attitudes_Q3</t>
+  </si>
+  <si>
+    <t>I would be willing to continue a relationship with a friend who developed a mental illness.</t>
+  </si>
+  <si>
+    <t>attitudes_Q4</t>
+  </si>
+  <si>
+    <t>I would be willing to go to school with a friend who developed a mental health problem.</t>
+  </si>
+  <si>
+    <t>attitudes_Q5</t>
+  </si>
+  <si>
+    <t>If I felt that I had a mental health problem, I would ask my parents/teacher/friends for help.</t>
+  </si>
+  <si>
+    <t>attitudes_Q6</t>
+  </si>
+  <si>
+    <t>If I felt that I had a mental health problem, I would visit a specialist or go to therapy.</t>
   </si>
 </sst>
 </file>
@@ -726,7 +627,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,76 +639,37 @@
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -827,7 +689,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +724,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -872,15 +734,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00BDE4A-B23E-D74E-B079-4C6B081190E9}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="63.83203125" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" style="2" customWidth="1"/>
   </cols>
@@ -893,30 +755,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
@@ -924,10 +786,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
@@ -935,105 +797,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
